--- a/2022/Samsung/MARCH/03.03.2022/SAMSUNG Bank Statement March-2022.xlsx
+++ b/2022/Samsung/MARCH/03.03.2022/SAMSUNG Bank Statement March-2022.xlsx
@@ -2852,6 +2852,9 @@
     <xf numFmtId="1" fontId="34" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2976,9 +2979,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3438,33 +3438,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="321"/>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
+      <c r="A1" s="322"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="322"/>
-      <c r="B2" s="319" t="s">
+      <c r="A2" s="323"/>
+      <c r="B2" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="322"/>
-      <c r="B3" s="320" t="s">
+      <c r="A3" s="323"/>
+      <c r="B3" s="321" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="322"/>
+      <c r="A4" s="323"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3482,7 +3482,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="322"/>
+      <c r="A5" s="323"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="322"/>
+      <c r="A6" s="323"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3512,7 +3512,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="322"/>
+      <c r="A7" s="323"/>
       <c r="B7" s="26" t="s">
         <v>44</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="322"/>
+      <c r="A8" s="323"/>
       <c r="B8" s="26" t="s">
         <v>45</v>
       </c>
@@ -3550,7 +3550,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="322"/>
+      <c r="A9" s="323"/>
       <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="322"/>
+      <c r="A10" s="323"/>
       <c r="B10" s="26" t="s">
         <v>48</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="322"/>
+      <c r="A11" s="323"/>
       <c r="B11" s="26" t="s">
         <v>49</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="322"/>
+      <c r="A12" s="323"/>
       <c r="B12" s="26" t="s">
         <v>50</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="322"/>
+      <c r="A13" s="323"/>
       <c r="B13" s="26" t="s">
         <v>51</v>
       </c>
@@ -3645,7 +3645,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="322"/>
+      <c r="A14" s="323"/>
       <c r="B14" s="26" t="s">
         <v>52</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="322"/>
+      <c r="A15" s="323"/>
       <c r="B15" s="26" t="s">
         <v>53</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="322"/>
+      <c r="A16" s="323"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3696,7 +3696,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="322"/>
+      <c r="A17" s="323"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3709,7 +3709,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="322"/>
+      <c r="A18" s="323"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3722,7 +3722,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="322"/>
+      <c r="A19" s="323"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3735,7 +3735,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="322"/>
+      <c r="A20" s="323"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3748,7 +3748,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="322"/>
+      <c r="A21" s="323"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3761,7 +3761,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="322"/>
+      <c r="A22" s="323"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3774,7 +3774,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="322"/>
+      <c r="A23" s="323"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3787,7 +3787,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="322"/>
+      <c r="A24" s="323"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3800,7 +3800,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="322"/>
+      <c r="A25" s="323"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -3813,7 +3813,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="322"/>
+      <c r="A26" s="323"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3826,7 +3826,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="322"/>
+      <c r="A27" s="323"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -3839,7 +3839,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="322"/>
+      <c r="A28" s="323"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -3852,7 +3852,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="322"/>
+      <c r="A29" s="323"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -3865,7 +3865,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="322"/>
+      <c r="A30" s="323"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -3878,7 +3878,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="322"/>
+      <c r="A31" s="323"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -3891,7 +3891,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="322"/>
+      <c r="A32" s="323"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -3904,7 +3904,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="322"/>
+      <c r="A33" s="323"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -3917,7 +3917,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="322"/>
+      <c r="A34" s="323"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -3930,7 +3930,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="322"/>
+      <c r="A35" s="323"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -3943,7 +3943,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="322"/>
+      <c r="A36" s="323"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -3956,7 +3956,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="322"/>
+      <c r="A37" s="323"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -3969,7 +3969,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="322"/>
+      <c r="A38" s="323"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -3982,7 +3982,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="322"/>
+      <c r="A39" s="323"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -3995,7 +3995,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="322"/>
+      <c r="A40" s="323"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4008,7 +4008,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="322"/>
+      <c r="A41" s="323"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4021,7 +4021,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="322"/>
+      <c r="A42" s="323"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4034,7 +4034,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="322"/>
+      <c r="A43" s="323"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4047,7 +4047,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="322"/>
+      <c r="A44" s="323"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4060,7 +4060,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="322"/>
+      <c r="A45" s="323"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4073,7 +4073,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="322"/>
+      <c r="A46" s="323"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4086,7 +4086,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="322"/>
+      <c r="A47" s="323"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4099,7 +4099,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="322"/>
+      <c r="A48" s="323"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4112,7 +4112,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="322"/>
+      <c r="A49" s="323"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4125,7 +4125,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="322"/>
+      <c r="A50" s="323"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4138,7 +4138,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="322"/>
+      <c r="A51" s="323"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4151,7 +4151,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="322"/>
+      <c r="A52" s="323"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4164,7 +4164,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="322"/>
+      <c r="A53" s="323"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4177,7 +4177,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="322"/>
+      <c r="A54" s="323"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4190,7 +4190,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="322"/>
+      <c r="A55" s="323"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4202,7 +4202,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="322"/>
+      <c r="A56" s="323"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4214,7 +4214,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="322"/>
+      <c r="A57" s="323"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4226,7 +4226,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="322"/>
+      <c r="A58" s="323"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4238,7 +4238,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="322"/>
+      <c r="A59" s="323"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4250,7 +4250,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="322"/>
+      <c r="A60" s="323"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4262,7 +4262,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="322"/>
+      <c r="A61" s="323"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4274,7 +4274,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="322"/>
+      <c r="A62" s="323"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4286,7 +4286,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="322"/>
+      <c r="A63" s="323"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4298,7 +4298,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="322"/>
+      <c r="A64" s="323"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4310,7 +4310,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="322"/>
+      <c r="A65" s="323"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4322,7 +4322,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="322"/>
+      <c r="A66" s="323"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4334,7 +4334,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="322"/>
+      <c r="A67" s="323"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4346,7 +4346,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="322"/>
+      <c r="A68" s="323"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4358,7 +4358,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="322"/>
+      <c r="A69" s="323"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4370,7 +4370,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="322"/>
+      <c r="A70" s="323"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4382,7 +4382,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="322"/>
+      <c r="A71" s="323"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4394,7 +4394,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="322"/>
+      <c r="A72" s="323"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4406,7 +4406,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="322"/>
+      <c r="A73" s="323"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4418,7 +4418,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="322"/>
+      <c r="A74" s="323"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4430,7 +4430,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="322"/>
+      <c r="A75" s="323"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4442,7 +4442,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="322"/>
+      <c r="A76" s="323"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4454,7 +4454,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="322"/>
+      <c r="A77" s="323"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4466,7 +4466,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="322"/>
+      <c r="A78" s="323"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4478,7 +4478,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="322"/>
+      <c r="A79" s="323"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4490,7 +4490,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="322"/>
+      <c r="A80" s="323"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4502,7 +4502,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="322"/>
+      <c r="A81" s="323"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4514,7 +4514,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="322"/>
+      <c r="A82" s="323"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4526,7 +4526,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="322"/>
+      <c r="A83" s="323"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5169,33 +5169,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="321"/>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
+      <c r="A1" s="322"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="322"/>
-      <c r="B2" s="319" t="s">
+      <c r="A2" s="323"/>
+      <c r="B2" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="322"/>
-      <c r="B3" s="320" t="s">
+      <c r="A3" s="323"/>
+      <c r="B3" s="321" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="322"/>
+      <c r="A4" s="323"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5213,7 +5213,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="322"/>
+      <c r="A5" s="323"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5231,7 +5231,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="322"/>
+      <c r="A6" s="323"/>
       <c r="B6" s="26"/>
       <c r="C6" s="247"/>
       <c r="D6" s="247"/>
@@ -5243,7 +5243,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="322"/>
+      <c r="A7" s="323"/>
       <c r="B7" s="26" t="s">
         <v>140</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="322"/>
+      <c r="A8" s="323"/>
       <c r="B8" s="26" t="s">
         <v>150</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="322"/>
+      <c r="A9" s="323"/>
       <c r="B9" s="26"/>
       <c r="C9" s="314"/>
       <c r="D9" s="314"/>
@@ -5293,7 +5293,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="322"/>
+      <c r="A10" s="323"/>
       <c r="B10" s="26"/>
       <c r="C10" s="249"/>
       <c r="D10" s="249"/>
@@ -5305,7 +5305,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="322"/>
+      <c r="A11" s="323"/>
       <c r="B11" s="26"/>
       <c r="C11" s="247"/>
       <c r="D11" s="247"/>
@@ -5317,7 +5317,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="322"/>
+      <c r="A12" s="323"/>
       <c r="B12" s="26"/>
       <c r="C12" s="247"/>
       <c r="D12" s="247"/>
@@ -5329,7 +5329,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="322"/>
+      <c r="A13" s="323"/>
       <c r="B13" s="26"/>
       <c r="C13" s="247"/>
       <c r="D13" s="247"/>
@@ -5341,7 +5341,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="322"/>
+      <c r="A14" s="323"/>
       <c r="B14" s="26"/>
       <c r="C14" s="247"/>
       <c r="D14" s="247"/>
@@ -5353,7 +5353,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="322"/>
+      <c r="A15" s="323"/>
       <c r="B15" s="26"/>
       <c r="C15" s="247"/>
       <c r="D15" s="247"/>
@@ -5365,7 +5365,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="322"/>
+      <c r="A16" s="323"/>
       <c r="B16" s="26"/>
       <c r="C16" s="247"/>
       <c r="D16" s="247"/>
@@ -5377,7 +5377,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="322"/>
+      <c r="A17" s="323"/>
       <c r="B17" s="26"/>
       <c r="C17" s="247"/>
       <c r="D17" s="247"/>
@@ -5389,7 +5389,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="322"/>
+      <c r="A18" s="323"/>
       <c r="B18" s="26"/>
       <c r="C18" s="247"/>
       <c r="D18" s="247"/>
@@ -5401,7 +5401,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="322"/>
+      <c r="A19" s="323"/>
       <c r="B19" s="26"/>
       <c r="C19" s="247"/>
       <c r="D19" s="249"/>
@@ -5413,7 +5413,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="322"/>
+      <c r="A20" s="323"/>
       <c r="B20" s="26"/>
       <c r="C20" s="247"/>
       <c r="D20" s="247"/>
@@ -5425,7 +5425,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="322"/>
+      <c r="A21" s="323"/>
       <c r="B21" s="26"/>
       <c r="C21" s="247"/>
       <c r="D21" s="247"/>
@@ -5437,7 +5437,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="322"/>
+      <c r="A22" s="323"/>
       <c r="B22" s="26"/>
       <c r="C22" s="247"/>
       <c r="D22" s="247"/>
@@ -5449,7 +5449,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="322"/>
+      <c r="A23" s="323"/>
       <c r="B23" s="26"/>
       <c r="C23" s="247"/>
       <c r="D23" s="247"/>
@@ -5461,7 +5461,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="322"/>
+      <c r="A24" s="323"/>
       <c r="B24" s="26"/>
       <c r="C24" s="247"/>
       <c r="D24" s="247"/>
@@ -5473,7 +5473,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="322"/>
+      <c r="A25" s="323"/>
       <c r="B25" s="26"/>
       <c r="C25" s="247"/>
       <c r="D25" s="247"/>
@@ -5485,7 +5485,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="322"/>
+      <c r="A26" s="323"/>
       <c r="B26" s="26"/>
       <c r="C26" s="247"/>
       <c r="D26" s="247"/>
@@ -5497,7 +5497,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="322"/>
+      <c r="A27" s="323"/>
       <c r="B27" s="26"/>
       <c r="C27" s="247"/>
       <c r="D27" s="247"/>
@@ -5509,7 +5509,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="322"/>
+      <c r="A28" s="323"/>
       <c r="B28" s="26"/>
       <c r="C28" s="247"/>
       <c r="D28" s="247"/>
@@ -5521,7 +5521,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="322"/>
+      <c r="A29" s="323"/>
       <c r="B29" s="26"/>
       <c r="C29" s="247"/>
       <c r="D29" s="247"/>
@@ -5533,7 +5533,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="322"/>
+      <c r="A30" s="323"/>
       <c r="B30" s="26"/>
       <c r="C30" s="247"/>
       <c r="D30" s="247"/>
@@ -5545,7 +5545,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="322"/>
+      <c r="A31" s="323"/>
       <c r="B31" s="26"/>
       <c r="C31" s="247"/>
       <c r="D31" s="247"/>
@@ -5557,7 +5557,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="322"/>
+      <c r="A32" s="323"/>
       <c r="B32" s="26"/>
       <c r="C32" s="247"/>
       <c r="D32" s="247"/>
@@ -5569,7 +5569,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="322"/>
+      <c r="A33" s="323"/>
       <c r="B33" s="26"/>
       <c r="C33" s="247"/>
       <c r="D33" s="249"/>
@@ -5581,7 +5581,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="322"/>
+      <c r="A34" s="323"/>
       <c r="B34" s="26"/>
       <c r="C34" s="247"/>
       <c r="D34" s="247"/>
@@ -5593,7 +5593,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="322"/>
+      <c r="A35" s="323"/>
       <c r="B35" s="26"/>
       <c r="C35" s="247"/>
       <c r="D35" s="247"/>
@@ -5605,7 +5605,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="322"/>
+      <c r="A36" s="323"/>
       <c r="B36" s="26"/>
       <c r="C36" s="247"/>
       <c r="D36" s="247"/>
@@ -5617,7 +5617,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="322"/>
+      <c r="A37" s="323"/>
       <c r="B37" s="26"/>
       <c r="C37" s="247"/>
       <c r="D37" s="247"/>
@@ -5629,7 +5629,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="322"/>
+      <c r="A38" s="323"/>
       <c r="B38" s="26"/>
       <c r="C38" s="247"/>
       <c r="D38" s="247"/>
@@ -5641,7 +5641,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="322"/>
+      <c r="A39" s="323"/>
       <c r="B39" s="26"/>
       <c r="C39" s="247"/>
       <c r="D39" s="247"/>
@@ -5653,7 +5653,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="322"/>
+      <c r="A40" s="323"/>
       <c r="B40" s="26"/>
       <c r="C40" s="247"/>
       <c r="D40" s="247"/>
@@ -5665,7 +5665,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="322"/>
+      <c r="A41" s="323"/>
       <c r="B41" s="26"/>
       <c r="C41" s="247"/>
       <c r="D41" s="247"/>
@@ -5677,7 +5677,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="322"/>
+      <c r="A42" s="323"/>
       <c r="B42" s="26"/>
       <c r="C42" s="247"/>
       <c r="D42" s="247"/>
@@ -5689,7 +5689,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="322"/>
+      <c r="A43" s="323"/>
       <c r="B43" s="26"/>
       <c r="C43" s="247"/>
       <c r="D43" s="247"/>
@@ -5701,7 +5701,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="322"/>
+      <c r="A44" s="323"/>
       <c r="B44" s="26"/>
       <c r="C44" s="247"/>
       <c r="D44" s="247"/>
@@ -5713,7 +5713,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="322"/>
+      <c r="A45" s="323"/>
       <c r="B45" s="26"/>
       <c r="C45" s="247"/>
       <c r="D45" s="247"/>
@@ -5725,7 +5725,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="322"/>
+      <c r="A46" s="323"/>
       <c r="B46" s="26"/>
       <c r="C46" s="247"/>
       <c r="D46" s="247"/>
@@ -5737,7 +5737,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="322"/>
+      <c r="A47" s="323"/>
       <c r="B47" s="26"/>
       <c r="C47" s="247"/>
       <c r="D47" s="247"/>
@@ -5749,7 +5749,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="322"/>
+      <c r="A48" s="323"/>
       <c r="B48" s="26"/>
       <c r="C48" s="247"/>
       <c r="D48" s="247"/>
@@ -5761,7 +5761,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="322"/>
+      <c r="A49" s="323"/>
       <c r="B49" s="26"/>
       <c r="C49" s="247"/>
       <c r="D49" s="247"/>
@@ -5773,7 +5773,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="322"/>
+      <c r="A50" s="323"/>
       <c r="B50" s="26"/>
       <c r="C50" s="247"/>
       <c r="D50" s="247"/>
@@ -5785,7 +5785,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="322"/>
+      <c r="A51" s="323"/>
       <c r="B51" s="26"/>
       <c r="C51" s="247"/>
       <c r="D51" s="247"/>
@@ -5797,7 +5797,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="322"/>
+      <c r="A52" s="323"/>
       <c r="B52" s="26"/>
       <c r="C52" s="247"/>
       <c r="D52" s="247"/>
@@ -5809,7 +5809,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="322"/>
+      <c r="A53" s="323"/>
       <c r="B53" s="26"/>
       <c r="C53" s="247"/>
       <c r="D53" s="247"/>
@@ -5821,7 +5821,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="322"/>
+      <c r="A54" s="323"/>
       <c r="B54" s="26"/>
       <c r="C54" s="247"/>
       <c r="D54" s="247"/>
@@ -5833,7 +5833,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="322"/>
+      <c r="A55" s="323"/>
       <c r="B55" s="26"/>
       <c r="C55" s="247"/>
       <c r="D55" s="247"/>
@@ -5844,7 +5844,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="322"/>
+      <c r="A56" s="323"/>
       <c r="B56" s="26"/>
       <c r="C56" s="247"/>
       <c r="D56" s="247"/>
@@ -5855,7 +5855,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="322"/>
+      <c r="A57" s="323"/>
       <c r="B57" s="26"/>
       <c r="C57" s="247"/>
       <c r="D57" s="247"/>
@@ -5866,7 +5866,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="322"/>
+      <c r="A58" s="323"/>
       <c r="B58" s="26"/>
       <c r="C58" s="247"/>
       <c r="D58" s="247"/>
@@ -5877,7 +5877,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="322"/>
+      <c r="A59" s="323"/>
       <c r="B59" s="26"/>
       <c r="C59" s="247"/>
       <c r="D59" s="247"/>
@@ -5888,7 +5888,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="322"/>
+      <c r="A60" s="323"/>
       <c r="B60" s="26"/>
       <c r="C60" s="247"/>
       <c r="D60" s="247"/>
@@ -5899,7 +5899,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="322"/>
+      <c r="A61" s="323"/>
       <c r="B61" s="26"/>
       <c r="C61" s="247"/>
       <c r="D61" s="247"/>
@@ -5910,7 +5910,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="322"/>
+      <c r="A62" s="323"/>
       <c r="B62" s="26"/>
       <c r="C62" s="247"/>
       <c r="D62" s="247"/>
@@ -5921,7 +5921,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="322"/>
+      <c r="A63" s="323"/>
       <c r="B63" s="26"/>
       <c r="C63" s="247"/>
       <c r="D63" s="247"/>
@@ -5932,7 +5932,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="322"/>
+      <c r="A64" s="323"/>
       <c r="B64" s="26"/>
       <c r="C64" s="247"/>
       <c r="D64" s="247"/>
@@ -5943,7 +5943,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="322"/>
+      <c r="A65" s="323"/>
       <c r="B65" s="26"/>
       <c r="C65" s="247"/>
       <c r="D65" s="247"/>
@@ -5954,7 +5954,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="322"/>
+      <c r="A66" s="323"/>
       <c r="B66" s="26"/>
       <c r="C66" s="247"/>
       <c r="D66" s="247"/>
@@ -5965,7 +5965,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="322"/>
+      <c r="A67" s="323"/>
       <c r="B67" s="26"/>
       <c r="C67" s="247"/>
       <c r="D67" s="247"/>
@@ -5976,7 +5976,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="322"/>
+      <c r="A68" s="323"/>
       <c r="B68" s="26"/>
       <c r="C68" s="247"/>
       <c r="D68" s="247"/>
@@ -5987,7 +5987,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="322"/>
+      <c r="A69" s="323"/>
       <c r="B69" s="26"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
@@ -5998,7 +5998,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="322"/>
+      <c r="A70" s="323"/>
       <c r="B70" s="26"/>
       <c r="C70" s="247"/>
       <c r="D70" s="247"/>
@@ -6009,7 +6009,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="322"/>
+      <c r="A71" s="323"/>
       <c r="B71" s="26"/>
       <c r="C71" s="247"/>
       <c r="D71" s="247"/>
@@ -6020,7 +6020,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="322"/>
+      <c r="A72" s="323"/>
       <c r="B72" s="26"/>
       <c r="C72" s="247"/>
       <c r="D72" s="247"/>
@@ -6031,7 +6031,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="322"/>
+      <c r="A73" s="323"/>
       <c r="B73" s="26"/>
       <c r="C73" s="247"/>
       <c r="D73" s="247"/>
@@ -6042,7 +6042,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="322"/>
+      <c r="A74" s="323"/>
       <c r="B74" s="26"/>
       <c r="C74" s="247"/>
       <c r="D74" s="247"/>
@@ -6053,7 +6053,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="322"/>
+      <c r="A75" s="323"/>
       <c r="B75" s="26"/>
       <c r="C75" s="247"/>
       <c r="D75" s="247"/>
@@ -6064,7 +6064,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="322"/>
+      <c r="A76" s="323"/>
       <c r="B76" s="26"/>
       <c r="C76" s="247"/>
       <c r="D76" s="247"/>
@@ -6075,7 +6075,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="322"/>
+      <c r="A77" s="323"/>
       <c r="B77" s="26"/>
       <c r="C77" s="247"/>
       <c r="D77" s="247"/>
@@ -6086,7 +6086,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="322"/>
+      <c r="A78" s="323"/>
       <c r="B78" s="26"/>
       <c r="C78" s="247"/>
       <c r="D78" s="247"/>
@@ -6097,7 +6097,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="322"/>
+      <c r="A79" s="323"/>
       <c r="B79" s="26"/>
       <c r="C79" s="247"/>
       <c r="D79" s="247"/>
@@ -6109,7 +6109,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="322"/>
+      <c r="A80" s="323"/>
       <c r="B80" s="26"/>
       <c r="C80" s="247"/>
       <c r="D80" s="247"/>
@@ -6121,7 +6121,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="322"/>
+      <c r="A81" s="323"/>
       <c r="B81" s="26"/>
       <c r="C81" s="247"/>
       <c r="D81" s="247"/>
@@ -6133,7 +6133,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="322"/>
+      <c r="A82" s="323"/>
       <c r="B82" s="26"/>
       <c r="C82" s="247"/>
       <c r="D82" s="247"/>
@@ -6145,7 +6145,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="322"/>
+      <c r="A83" s="323"/>
       <c r="B83" s="31"/>
       <c r="C83" s="248">
         <f>SUM(C5:C72)</f>
@@ -6200,67 +6200,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="328" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
-      <c r="N1" s="327"/>
-      <c r="O1" s="327"/>
-      <c r="P1" s="327"/>
-      <c r="Q1" s="327"/>
+      <c r="B1" s="328"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="328"/>
+      <c r="L1" s="328"/>
+      <c r="M1" s="328"/>
+      <c r="N1" s="328"/>
+      <c r="O1" s="328"/>
+      <c r="P1" s="328"/>
+      <c r="Q1" s="328"/>
     </row>
     <row r="2" spans="1:24" s="64" customFormat="1" ht="18">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="329" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="328"/>
-      <c r="N2" s="328"/>
-      <c r="O2" s="328"/>
-      <c r="P2" s="328"/>
-      <c r="Q2" s="328"/>
+      <c r="B2" s="329"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
+      <c r="J2" s="329"/>
+      <c r="K2" s="329"/>
+      <c r="L2" s="329"/>
+      <c r="M2" s="329"/>
+      <c r="N2" s="329"/>
+      <c r="O2" s="329"/>
+      <c r="P2" s="329"/>
+      <c r="Q2" s="329"/>
     </row>
     <row r="3" spans="1:24" s="65" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="330" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="330"/>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
-      <c r="H3" s="330"/>
-      <c r="I3" s="330"/>
-      <c r="J3" s="330"/>
-      <c r="K3" s="330"/>
-      <c r="L3" s="330"/>
-      <c r="M3" s="330"/>
-      <c r="N3" s="330"/>
-      <c r="O3" s="330"/>
-      <c r="P3" s="330"/>
-      <c r="Q3" s="331"/>
+      <c r="B3" s="331"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
+      <c r="H3" s="331"/>
+      <c r="I3" s="331"/>
+      <c r="J3" s="331"/>
+      <c r="K3" s="331"/>
+      <c r="L3" s="331"/>
+      <c r="M3" s="331"/>
+      <c r="N3" s="331"/>
+      <c r="O3" s="331"/>
+      <c r="P3" s="331"/>
+      <c r="Q3" s="332"/>
       <c r="S3" s="49"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6269,52 +6269,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="66" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="332" t="s">
+      <c r="A4" s="333" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="334" t="s">
+      <c r="B4" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="323" t="s">
+      <c r="C4" s="324" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="323" t="s">
+      <c r="D4" s="324" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="323" t="s">
+      <c r="E4" s="324" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="323" t="s">
+      <c r="F4" s="324" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="323" t="s">
+      <c r="G4" s="324" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="323" t="s">
+      <c r="H4" s="324" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="323" t="s">
+      <c r="I4" s="324" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="323" t="s">
+      <c r="J4" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="323" t="s">
+      <c r="K4" s="324" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="323" t="s">
+      <c r="L4" s="324" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="323" t="s">
+      <c r="M4" s="324" t="s">
         <v>158</v>
       </c>
-      <c r="N4" s="323" t="s">
+      <c r="N4" s="324" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="325" t="s">
+      <c r="O4" s="326" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="336" t="s">
+      <c r="P4" s="337" t="s">
         <v>54</v>
       </c>
       <c r="Q4" s="124" t="s">
@@ -6327,22 +6327,22 @@
       <c r="W4" s="68"/>
     </row>
     <row r="5" spans="1:24" s="66" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="333"/>
-      <c r="B5" s="335"/>
-      <c r="C5" s="324"/>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
-      <c r="I5" s="324"/>
-      <c r="J5" s="324"/>
-      <c r="K5" s="324"/>
-      <c r="L5" s="324"/>
-      <c r="M5" s="324"/>
-      <c r="N5" s="324"/>
-      <c r="O5" s="326"/>
-      <c r="P5" s="337"/>
+      <c r="A5" s="334"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="325"/>
+      <c r="H5" s="325"/>
+      <c r="I5" s="325"/>
+      <c r="J5" s="325"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="325"/>
+      <c r="N5" s="325"/>
+      <c r="O5" s="327"/>
+      <c r="P5" s="338"/>
       <c r="Q5" s="125" t="s">
         <v>40</v>
       </c>
@@ -9258,11 +9258,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9277,6 +9272,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9289,7 +9289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A109" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
@@ -9317,15 +9317,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
+      <c r="G1" s="344"/>
       <c r="H1" s="59"/>
       <c r="I1" s="141"/>
       <c r="J1" s="141"/>
@@ -9418,15 +9418,15 @@
       <c r="CS1" s="136"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="344" t="s">
+      <c r="A2" s="345" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="344"/>
-      <c r="G2" s="344"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
       <c r="H2" s="59"/>
       <c r="I2" s="141"/>
       <c r="J2" s="141"/>
@@ -9519,15 +9519,15 @@
       <c r="CS2" s="136"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="345" t="s">
+      <c r="A3" s="346" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
-      <c r="G3" s="345"/>
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="346"/>
+      <c r="G3" s="346"/>
       <c r="H3" s="59"/>
       <c r="I3" s="141"/>
       <c r="J3" s="141"/>
@@ -9962,14 +9962,14 @@
         <v>139680</v>
       </c>
       <c r="C7" s="51">
-        <v>142730</v>
+        <v>152730</v>
       </c>
       <c r="D7" s="48">
         <v>990</v>
       </c>
       <c r="E7" s="48">
         <f t="shared" si="0"/>
-        <v>143720</v>
+        <v>153720</v>
       </c>
       <c r="F7" s="228"/>
       <c r="G7" s="241">
@@ -12630,7 +12630,7 @@
       </c>
       <c r="C33" s="252">
         <f>SUM(C5:C32)</f>
-        <v>392050</v>
+        <v>402050</v>
       </c>
       <c r="D33" s="251">
         <f>SUM(D5:D32)</f>
@@ -12638,11 +12638,11 @@
       </c>
       <c r="E33" s="251">
         <f>SUM(E5:E32)</f>
-        <v>395100</v>
+        <v>405100</v>
       </c>
       <c r="F33" s="251">
         <f>B33-E33</f>
-        <v>605670</v>
+        <v>595670</v>
       </c>
       <c r="G33" s="253"/>
       <c r="H33" s="137"/>
@@ -12837,12 +12837,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="131"/>
-      <c r="B35" s="340" t="s">
+      <c r="B35" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="340"/>
-      <c r="D35" s="340"/>
-      <c r="E35" s="340"/>
+      <c r="C35" s="341"/>
+      <c r="D35" s="341"/>
+      <c r="E35" s="341"/>
       <c r="F35" s="132"/>
       <c r="G35" s="137"/>
       <c r="H35" s="137"/>
@@ -13673,10 +13673,10 @@
       <c r="D43" s="206"/>
       <c r="E43" s="174"/>
       <c r="F43" s="132"/>
-      <c r="G43" s="341"/>
-      <c r="H43" s="341"/>
-      <c r="I43" s="341"/>
-      <c r="J43" s="341"/>
+      <c r="G43" s="342"/>
+      <c r="H43" s="342"/>
+      <c r="I43" s="342"/>
+      <c r="J43" s="342"/>
       <c r="K43" s="59"/>
       <c r="L43" s="141"/>
       <c r="M43" s="59"/>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="C53" s="117"/>
       <c r="D53" s="208">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="E53" s="178" t="s">
         <v>156</v>
@@ -21742,14 +21742,14 @@
       <c r="CS118" s="136"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="338" t="s">
+      <c r="A119" s="339" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="339"/>
-      <c r="C119" s="342"/>
+      <c r="B119" s="340"/>
+      <c r="C119" s="343"/>
       <c r="D119" s="210">
         <f>SUM(D37:D118)</f>
-        <v>2886370</v>
+        <v>2876370</v>
       </c>
       <c r="E119" s="204"/>
       <c r="F119" s="136"/>
@@ -21949,14 +21949,14 @@
       <c r="CS120" s="136"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="338" t="s">
+      <c r="A121" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="339"/>
-      <c r="C121" s="339"/>
+      <c r="B121" s="340"/>
+      <c r="C121" s="340"/>
       <c r="D121" s="210">
         <f>D119+M121</f>
-        <v>2886370</v>
+        <v>2876370</v>
       </c>
       <c r="E121" s="204"/>
       <c r="F121" s="136"/>
@@ -33187,8 +33187,8 @@
   </sheetPr>
   <dimension ref="A1:Q218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33204,35 +33204,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="347" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="348"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="349"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="20.25">
-      <c r="A2" s="355" t="s">
+      <c r="A2" s="356" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="357"/>
+      <c r="B2" s="357"/>
+      <c r="C2" s="357"/>
+      <c r="D2" s="357"/>
+      <c r="E2" s="358"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="350" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="351"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="352"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33247,13 +33247,13 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="358" t="s">
+      <c r="A4" s="359" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="359"/>
-      <c r="C4" s="359"/>
-      <c r="D4" s="359"/>
-      <c r="E4" s="360"/>
+      <c r="B4" s="360"/>
+      <c r="C4" s="360"/>
+      <c r="D4" s="360"/>
+      <c r="E4" s="361"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -33329,7 +33329,7 @@
         <v>73</v>
       </c>
       <c r="E7" s="277">
-        <v>314250</v>
+        <v>324250</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="255"/>
@@ -33394,7 +33394,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="277">
-        <v>2886370</v>
+        <v>2876370</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="234"/>
@@ -33490,7 +33490,7 @@
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="21.75">
-      <c r="A14" s="361" t="s">
+      <c r="A14" s="319" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="299">
@@ -33585,13 +33585,13 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A18" s="352" t="s">
+      <c r="A18" s="353" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="353"/>
-      <c r="C18" s="353"/>
-      <c r="D18" s="353"/>
-      <c r="E18" s="354"/>
+      <c r="B18" s="354"/>
+      <c r="C18" s="354"/>
+      <c r="D18" s="354"/>
+      <c r="E18" s="355"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7"/>
